--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0001616839030623441</v>
+        <v>0.0002034219952677446</v>
       </c>
       <c r="E2">
-        <v>0.0001616839030623441</v>
+        <v>0.0002034219952677446</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999737012936242</v>
+        <v>0.9999998010092973</v>
       </c>
       <c r="E3">
-        <v>0.9999737012936242</v>
+        <v>0.9999998010092973</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.08051207602632099</v>
+        <v>0.3283828948148235</v>
       </c>
       <c r="E4">
-        <v>0.08051207602632099</v>
+        <v>0.3283828948148235</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.076976127239679E-27</v>
+        <v>6.09921176195907E-27</v>
       </c>
       <c r="E5">
-        <v>3.076976127239679E-27</v>
+        <v>6.09921176195907E-27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0006075422676103672</v>
+        <v>0.1562520927195231</v>
       </c>
       <c r="E6">
-        <v>0.0006075422676103672</v>
+        <v>0.1562520927195231</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.99999984129673</v>
+        <v>0.9999999996625948</v>
       </c>
       <c r="E7">
-        <v>1.587032699701396E-07</v>
+        <v>3.374052148785722E-10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999935563</v>
+        <v>0.9999999966402207</v>
       </c>
       <c r="E8">
-        <v>6.443734434924409E-12</v>
+        <v>3.359779343625746E-09</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0005783038061958858</v>
+        <v>0.0001213909939871626</v>
       </c>
       <c r="E9">
-        <v>0.9994216961938042</v>
+        <v>0.9998786090060129</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.773807019300639E-05</v>
+        <v>3.561512789112387E-07</v>
       </c>
       <c r="E11">
-        <v>0.999912261929807</v>
+        <v>0.9999996438487211</v>
       </c>
       <c r="F11">
-        <v>2.742726564407349</v>
+        <v>3.986258268356323</v>
       </c>
       <c r="G11">
         <v>0.7</v>
